--- a/FacturaFactoring/entregables.xlsx
+++ b/FacturaFactoring/entregables.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\consultorit\FacturaFactoring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Respaldo GITHUB\Net\Proyectos-.Net\FacturaFactoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Funcionalidades</t>
   </si>
@@ -73,12 +73,15 @@
   </si>
   <si>
     <t>Carlos</t>
+  </si>
+  <si>
+    <t>asdasd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,7 +426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -493,8 +496,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -526,6 +529,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
